--- a/02 CLanguage/007 参数和局部变量本质 本机尺寸 数组本质 桶排序.xlsx
+++ b/02 CLanguage/007 参数和局部变量本质 本机尺寸 数组本质 桶排序.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C32F15-D167-4DDB-BC26-C6C889ED2580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28CEE9-9678-4BC9-B3CE-D5BA2D6CE45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,14 @@
     <sheet name="04" sheetId="5" r:id="rId5"/>
     <sheet name="05" sheetId="6" r:id="rId6"/>
     <sheet name="06" sheetId="7" r:id="rId7"/>
+    <sheet name="桶排序" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="140">
   <si>
     <t>1、返回值是如何传递的？</t>
   </si>
@@ -375,13 +376,92 @@
   <si>
     <t>// arr[4],arr[5]可以通过编译</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、桶排序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>void fun(int *arr,int len,int max)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int i=0,j=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int *arr1=(int*)malloc(sizeof(int)*(max+1));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(i=0;i&lt;=max;i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        arr1[i]=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 统计每个数出现的次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(i=0;i&lt;len;i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        arr1[arr[i]]++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(i=0;i&lt;=max;i++) printf("%d ",arr1[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    printf("\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(i=0;i&lt;=max;i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for(j=0;j&lt;arr1[i];j++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            printf("%d ",i);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t>int main()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int i=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int arr[10]={5,4,11,6,3,2,8,2,3,1};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for(i;i&lt;10;i++) printf("%d ",arr[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fun(arr,10,11);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -425,6 +505,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -457,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +560,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,8 +923,8 @@
   </sheetPr>
   <dimension ref="B3:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -944,7 +1039,9 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,9 +1139,7 @@
       </c>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1060,9 +1155,7 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F39" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1078,9 +1171,7 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F41" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1096,21 +1187,15 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1126,9 +1211,7 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1144,6 +1227,7 @@
     <hyperlink ref="B9" location="'04'!A1" display="4、赋值语句的本质" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B11" location="'05'!A1" display="5、数组的本质" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B13" location="'06'!A1" display="6、数组的使用" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B15" location="桶排序!A1" display="7、桶排序" xr:uid="{F9DC801E-E267-425A-B436-0DC2F4F723C2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2067,4 +2151,640 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A4FCD0-1BA6-4A82-AA21-641C20833DDE}">
+  <dimension ref="B1:J52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>